--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -1142,7 +1142,9 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s"/>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
       <c r="E2" s="2" t="s"/>
     </row>
     <row r="3" spans="1:5">
@@ -1153,7 +1155,9 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s"/>
-      <c r="D3" s="2" t="s"/>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
       <c r="E3" s="2" t="s"/>
     </row>
     <row r="4" spans="1:5">
@@ -1166,7 +1170,9 @@
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s"/>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
       <c r="E4" s="2" t="s"/>
     </row>
     <row r="5" spans="1:5">
@@ -1179,7 +1185,9 @@
       <c r="C5" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s"/>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
       <c r="E5" s="2" t="s"/>
     </row>
     <row r="6" spans="1:5">
@@ -1189,10 +1197,10 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s"/>
+      <c r="C6" s="2" t="s"/>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
       <c r="E6" s="2" t="s"/>
     </row>
     <row r="7" spans="1:5">
@@ -1205,7 +1213,9 @@
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s"/>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
       <c r="E7" s="2" t="s"/>
     </row>
     <row r="8" spans="1:5">
@@ -1218,7 +1228,9 @@
       <c r="C8" s="2">
         <v>9.5</v>
       </c>
-      <c r="D8" s="2" t="s"/>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
       <c r="E8" s="2" t="s"/>
     </row>
     <row r="9" spans="1:5">
@@ -1231,7 +1243,9 @@
       <c r="C9" s="2">
         <v>9.5</v>
       </c>
-      <c r="D9" s="2" t="s"/>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
       <c r="E9" s="2" t="s"/>
     </row>
     <row r="10" spans="1:5">
@@ -1244,7 +1258,9 @@
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s"/>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
       <c r="E10" s="2" t="s"/>
     </row>
     <row r="11" spans="1:5">
@@ -1257,7 +1273,9 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s"/>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
       <c r="E11" s="2" t="s"/>
     </row>
     <row r="12" spans="1:5">
@@ -1292,7 +1310,9 @@
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s"/>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
       <c r="E14" s="2" t="s"/>
     </row>
     <row r="15" spans="1:5">
@@ -1305,7 +1325,9 @@
       <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s"/>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
       <c r="E15" s="2" t="s"/>
     </row>
     <row r="16" spans="1:5">
@@ -1318,7 +1340,9 @@
       <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s"/>
+      <c r="D16" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E16" s="2" t="s"/>
     </row>
     <row r="17" spans="1:5">
@@ -1331,7 +1355,9 @@
       <c r="C17" s="2">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s"/>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
       <c r="E17" s="2" t="s"/>
     </row>
     <row r="18" spans="1:5">
@@ -1344,7 +1370,9 @@
       <c r="C18" s="2">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s"/>
+      <c r="D18" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E18" s="2" t="s"/>
     </row>
     <row r="19" spans="1:5">
@@ -1357,7 +1385,9 @@
       <c r="C19" s="2">
         <v>10</v>
       </c>
-      <c r="D19" s="2" t="s"/>
+      <c r="D19" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E19" s="2" t="s"/>
     </row>
     <row r="20" spans="1:5">
@@ -1370,7 +1400,9 @@
       <c r="C20" s="2">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s"/>
+      <c r="D20" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E20" s="2" t="s"/>
     </row>
     <row r="21" spans="1:5">
@@ -1383,7 +1415,9 @@
       <c r="C21" s="2">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s"/>
+      <c r="D21" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E21" s="2" t="s"/>
     </row>
     <row r="22" spans="1:5">
@@ -1396,7 +1430,9 @@
       <c r="C22" s="2">
         <v>9.5</v>
       </c>
-      <c r="D22" s="2" t="s"/>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
       <c r="E22" s="2" t="s"/>
     </row>
     <row r="23" spans="1:5">
@@ -1442,7 +1478,9 @@
       <c r="C26" s="2">
         <v>9.5</v>
       </c>
-      <c r="D26" s="2" t="s"/>
+      <c r="D26" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E26" s="2" t="s"/>
     </row>
     <row r="27" spans="1:5">
@@ -1455,7 +1493,9 @@
       <c r="C27" s="2">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s"/>
+      <c r="D27" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E27" s="2" t="s"/>
     </row>
     <row r="28" spans="1:5">
@@ -1468,7 +1508,9 @@
       <c r="C28" s="2">
         <v>9.5</v>
       </c>
-      <c r="D28" s="2" t="s"/>
+      <c r="D28" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E28" s="2" t="s"/>
     </row>
     <row r="29" spans="1:5">
@@ -1481,7 +1523,9 @@
       <c r="C29" s="2">
         <v>10</v>
       </c>
-      <c r="D29" s="2" t="s"/>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
       <c r="E29" s="2" t="s"/>
     </row>
     <row r="30" spans="1:5">
@@ -1494,7 +1538,9 @@
       <c r="C30" s="2">
         <v>9.5</v>
       </c>
-      <c r="D30" s="2" t="s"/>
+      <c r="D30" s="2">
+        <v>9</v>
+      </c>
       <c r="E30" s="2" t="s"/>
     </row>
     <row r="31" spans="1:5">
@@ -1507,7 +1553,9 @@
       <c r="C31" s="2">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s"/>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
       <c r="E31" s="2" t="s"/>
     </row>
     <row r="32" spans="1:5">
@@ -1520,7 +1568,9 @@
       <c r="C32" s="2">
         <v>9</v>
       </c>
-      <c r="D32" s="2" t="s"/>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
       <c r="E32" s="2" t="s"/>
     </row>
     <row r="33" spans="1:5">
@@ -1533,7 +1583,9 @@
       <c r="C33" s="2">
         <v>10</v>
       </c>
-      <c r="D33" s="2" t="s"/>
+      <c r="D33" s="2">
+        <v>8</v>
+      </c>
       <c r="E33" s="2" t="s"/>
     </row>
     <row r="34" spans="1:5">
@@ -1570,7 +1622,9 @@
       <c r="C36" s="2">
         <v>9.5</v>
       </c>
-      <c r="D36" s="2" t="s"/>
+      <c r="D36" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E36" s="2" t="s"/>
     </row>
     <row r="37" spans="1:5">
@@ -1594,7 +1648,9 @@
       <c r="C38" s="2">
         <v>9.5</v>
       </c>
-      <c r="D38" s="2" t="s"/>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
       <c r="E38" s="2" t="s"/>
     </row>
     <row r="39" spans="1:5">
@@ -1607,7 +1663,9 @@
       <c r="C39" s="2">
         <v>10</v>
       </c>
-      <c r="D39" s="2" t="s"/>
+      <c r="D39" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E39" s="2" t="s"/>
     </row>
     <row r="40" spans="1:5">
@@ -1620,7 +1678,9 @@
       <c r="C40" s="2">
         <v>10</v>
       </c>
-      <c r="D40" s="2" t="s"/>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
       <c r="E40" s="2" t="s"/>
     </row>
     <row r="41" spans="1:5">
@@ -1633,7 +1693,9 @@
       <c r="C41" s="2">
         <v>10</v>
       </c>
-      <c r="D41" s="2" t="s"/>
+      <c r="D41" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E41" s="2" t="s"/>
     </row>
     <row r="42" spans="1:5">
@@ -1659,7 +1721,9 @@
       <c r="C43" s="2">
         <v>9.5</v>
       </c>
-      <c r="D43" s="2" t="s"/>
+      <c r="D43" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E43" s="2" t="s"/>
     </row>
     <row r="44" spans="1:5">
@@ -1672,7 +1736,9 @@
       <c r="C44" s="2">
         <v>9.5</v>
       </c>
-      <c r="D44" s="2" t="s"/>
+      <c r="D44" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E44" s="2" t="s"/>
     </row>
     <row r="45" spans="1:5">
@@ -1685,7 +1751,9 @@
       <c r="C45" s="2">
         <v>10</v>
       </c>
-      <c r="D45" s="2" t="s"/>
+      <c r="D45" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E45" s="2" t="s"/>
     </row>
     <row r="46" spans="1:5">
@@ -1698,7 +1766,9 @@
       <c r="C46" s="2">
         <v>10</v>
       </c>
-      <c r="D46" s="2" t="s"/>
+      <c r="D46" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E46" s="2" t="s"/>
     </row>
     <row r="47" spans="1:5">
@@ -1711,7 +1781,9 @@
       <c r="C47" s="2">
         <v>10</v>
       </c>
-      <c r="D47" s="2" t="s"/>
+      <c r="D47" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E47" s="2" t="s"/>
     </row>
     <row r="48" spans="1:5">
@@ -1724,7 +1796,9 @@
       <c r="C48" s="2">
         <v>9.5</v>
       </c>
-      <c r="D48" s="2" t="s"/>
+      <c r="D48" s="2">
+        <v>10</v>
+      </c>
       <c r="E48" s="2" t="s"/>
     </row>
     <row r="49" spans="1:5">
@@ -1748,7 +1822,9 @@
       <c r="C50" s="2">
         <v>9.5</v>
       </c>
-      <c r="D50" s="2" t="s"/>
+      <c r="D50" s="2">
+        <v>10</v>
+      </c>
       <c r="E50" s="2" t="s"/>
     </row>
     <row r="51" spans="1:5">
@@ -1761,7 +1837,9 @@
       <c r="C51" s="2">
         <v>10</v>
       </c>
-      <c r="D51" s="2" t="s"/>
+      <c r="D51" s="2">
+        <v>9</v>
+      </c>
       <c r="E51" s="2" t="s"/>
     </row>
     <row r="52" spans="1:5">
@@ -1774,7 +1852,9 @@
       <c r="C52" s="2">
         <v>10</v>
       </c>
-      <c r="D52" s="2" t="s"/>
+      <c r="D52" s="2">
+        <v>8.5</v>
+      </c>
       <c r="E52" s="2" t="s"/>
     </row>
     <row r="53" spans="1:5">
@@ -1787,7 +1867,9 @@
       <c r="C53" s="2">
         <v>9.5</v>
       </c>
-      <c r="D53" s="2" t="s"/>
+      <c r="D53" s="2">
+        <v>10</v>
+      </c>
       <c r="E53" s="2" t="s"/>
     </row>
     <row r="54" spans="1:5">
@@ -1800,7 +1882,9 @@
       <c r="C54" s="2">
         <v>10</v>
       </c>
-      <c r="D54" s="2" t="s"/>
+      <c r="D54" s="2">
+        <v>10</v>
+      </c>
       <c r="E54" s="2" t="s"/>
     </row>
     <row r="55" spans="1:5">
@@ -1813,7 +1897,9 @@
       <c r="C55" s="2">
         <v>10</v>
       </c>
-      <c r="D55" s="2" t="s"/>
+      <c r="D55" s="2">
+        <v>10</v>
+      </c>
       <c r="E55" s="2" t="s"/>
     </row>
     <row r="56" spans="1:5">
@@ -1826,7 +1912,9 @@
       <c r="C56" s="2">
         <v>10</v>
       </c>
-      <c r="D56" s="2" t="s"/>
+      <c r="D56" s="2">
+        <v>10</v>
+      </c>
       <c r="E56" s="2" t="s"/>
     </row>
     <row r="57" spans="1:5">
@@ -1850,7 +1938,9 @@
       <c r="C58" s="2">
         <v>9</v>
       </c>
-      <c r="D58" s="2" t="s"/>
+      <c r="D58" s="2">
+        <v>8</v>
+      </c>
       <c r="E58" s="2" t="s"/>
     </row>
     <row r="59" spans="1:5">
@@ -1863,7 +1953,9 @@
       <c r="C59" s="2">
         <v>9</v>
       </c>
-      <c r="D59" s="2" t="s"/>
+      <c r="D59" s="2">
+        <v>8.5</v>
+      </c>
       <c r="E59" s="2" t="s"/>
     </row>
     <row r="60" spans="1:5">
@@ -1876,7 +1968,9 @@
       <c r="C60" s="2">
         <v>9</v>
       </c>
-      <c r="D60" s="2" t="s"/>
+      <c r="D60" s="2">
+        <v>9</v>
+      </c>
       <c r="E60" s="2" t="s"/>
     </row>
     <row r="61" spans="1:5">
@@ -1913,7 +2007,9 @@
       <c r="C63" s="2">
         <v>8.5</v>
       </c>
-      <c r="D63" s="2" t="s"/>
+      <c r="D63" s="2">
+        <v>10</v>
+      </c>
       <c r="E63" s="2" t="s"/>
     </row>
     <row r="64" spans="1:5">
@@ -1926,7 +2022,9 @@
       <c r="C64" s="2">
         <v>10</v>
       </c>
-      <c r="D64" s="2" t="s"/>
+      <c r="D64" s="2">
+        <v>9</v>
+      </c>
       <c r="E64" s="2" t="s"/>
     </row>
     <row r="65" spans="1:5">
@@ -1939,7 +2037,9 @@
       <c r="C65" s="2">
         <v>9.5</v>
       </c>
-      <c r="D65" s="2" t="s"/>
+      <c r="D65" s="2">
+        <v>7</v>
+      </c>
       <c r="E65" s="2" t="s"/>
     </row>
     <row r="66" spans="1:5">
@@ -1952,7 +2052,9 @@
       <c r="C66" s="2">
         <v>9.5</v>
       </c>
-      <c r="D66" s="2" t="s"/>
+      <c r="D66" s="2">
+        <v>9</v>
+      </c>
       <c r="E66" s="2" t="s"/>
     </row>
     <row r="67" spans="1:5">
@@ -1965,7 +2067,9 @@
       <c r="C67" s="2">
         <v>10</v>
       </c>
-      <c r="D67" s="2" t="s"/>
+      <c r="D67" s="2">
+        <v>10</v>
+      </c>
       <c r="E67" s="2" t="s"/>
     </row>
     <row r="68" spans="1:5">
@@ -1978,7 +2082,9 @@
       <c r="C68" s="2">
         <v>9.5</v>
       </c>
-      <c r="D68" s="2" t="s"/>
+      <c r="D68" s="2">
+        <v>10</v>
+      </c>
       <c r="E68" s="2" t="s"/>
     </row>
     <row r="69" spans="1:5">
@@ -1991,7 +2097,9 @@
       <c r="C69" s="2">
         <v>10</v>
       </c>
-      <c r="D69" s="2" t="s"/>
+      <c r="D69" s="2">
+        <v>9</v>
+      </c>
       <c r="E69" s="2" t="s"/>
     </row>
     <row r="70" spans="1:5">
@@ -2004,7 +2112,9 @@
       <c r="C70" s="2">
         <v>10</v>
       </c>
-      <c r="D70" s="2" t="s"/>
+      <c r="D70" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E70" s="2" t="s"/>
     </row>
     <row r="71" spans="1:5">
@@ -2017,7 +2127,9 @@
       <c r="C71" s="2">
         <v>10</v>
       </c>
-      <c r="D71" s="2" t="s"/>
+      <c r="D71" s="2">
+        <v>10</v>
+      </c>
       <c r="E71" s="2" t="s"/>
     </row>
     <row r="72" spans="1:5">
@@ -2030,7 +2142,9 @@
       <c r="C72" s="2">
         <v>9.5</v>
       </c>
-      <c r="D72" s="2" t="s"/>
+      <c r="D72" s="2">
+        <v>9</v>
+      </c>
       <c r="E72" s="2" t="s"/>
     </row>
     <row r="73" spans="1:5">
@@ -2043,7 +2157,9 @@
       <c r="C73" s="2">
         <v>10</v>
       </c>
-      <c r="D73" s="2" t="s"/>
+      <c r="D73" s="2">
+        <v>10</v>
+      </c>
       <c r="E73" s="2" t="s"/>
     </row>
     <row r="74" spans="1:5">
@@ -2056,7 +2172,9 @@
       <c r="C74" s="2">
         <v>10</v>
       </c>
-      <c r="D74" s="2" t="s"/>
+      <c r="D74" s="2">
+        <v>10</v>
+      </c>
       <c r="E74" s="2" t="s"/>
     </row>
     <row r="75" spans="1:5">
@@ -2069,7 +2187,9 @@
       <c r="C75" s="2">
         <v>10</v>
       </c>
-      <c r="D75" s="2" t="s"/>
+      <c r="D75" s="2">
+        <v>10</v>
+      </c>
       <c r="E75" s="2" t="s"/>
     </row>
     <row r="76" spans="1:5">
@@ -2082,7 +2202,9 @@
       <c r="C76" s="2">
         <v>10</v>
       </c>
-      <c r="D76" s="2" t="s"/>
+      <c r="D76" s="2">
+        <v>10</v>
+      </c>
       <c r="E76" s="2" t="s"/>
     </row>
     <row r="77" spans="1:5">
@@ -2095,7 +2217,9 @@
       <c r="C77" s="2">
         <v>10</v>
       </c>
-      <c r="D77" s="2" t="s"/>
+      <c r="D77" s="2">
+        <v>10</v>
+      </c>
       <c r="E77" s="2" t="s"/>
     </row>
     <row r="78" spans="1:5">
@@ -2108,7 +2232,9 @@
       <c r="C78" s="2">
         <v>10</v>
       </c>
-      <c r="D78" s="2" t="s"/>
+      <c r="D78" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E78" s="2" t="s"/>
     </row>
     <row r="79" spans="1:5">
@@ -2121,7 +2247,9 @@
       <c r="C79" s="2">
         <v>10</v>
       </c>
-      <c r="D79" s="2" t="s"/>
+      <c r="D79" s="2">
+        <v>9</v>
+      </c>
       <c r="E79" s="2" t="s"/>
     </row>
     <row r="80" spans="1:5">
@@ -2134,7 +2262,9 @@
       <c r="C80" s="2">
         <v>10</v>
       </c>
-      <c r="D80" s="2" t="s"/>
+      <c r="D80" s="2">
+        <v>10</v>
+      </c>
       <c r="E80" s="2" t="s"/>
     </row>
     <row r="81" spans="1:5">
@@ -2147,7 +2277,9 @@
       <c r="C81" s="2">
         <v>10</v>
       </c>
-      <c r="D81" s="2" t="s"/>
+      <c r="D81" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E81" s="2" t="s"/>
     </row>
     <row r="82" spans="1:5">
@@ -2160,7 +2292,9 @@
       <c r="C82" s="2">
         <v>10</v>
       </c>
-      <c r="D82" s="2" t="s"/>
+      <c r="D82" s="2">
+        <v>8</v>
+      </c>
       <c r="E82" s="2" t="s"/>
     </row>
     <row r="83" spans="1:5">
@@ -2173,7 +2307,9 @@
       <c r="C83" s="2">
         <v>10</v>
       </c>
-      <c r="D83" s="2" t="s"/>
+      <c r="D83" s="2">
+        <v>10</v>
+      </c>
       <c r="E83" s="2" t="s"/>
     </row>
     <row r="84" spans="1:5">
@@ -2186,7 +2322,9 @@
       <c r="C84" s="2">
         <v>9.5</v>
       </c>
-      <c r="D84" s="2" t="s"/>
+      <c r="D84" s="2">
+        <v>7.5</v>
+      </c>
       <c r="E84" s="2" t="s"/>
     </row>
     <row r="85" spans="1:5">
@@ -2199,7 +2337,9 @@
       <c r="C85" s="2">
         <v>9</v>
       </c>
-      <c r="D85" s="2" t="s"/>
+      <c r="D85" s="2">
+        <v>9</v>
+      </c>
       <c r="E85" s="2" t="s"/>
     </row>
     <row r="86" spans="1:5">
@@ -2212,7 +2352,9 @@
       <c r="C86" s="2">
         <v>10</v>
       </c>
-      <c r="D86" s="2" t="s"/>
+      <c r="D86" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E86" s="2" t="s"/>
     </row>
     <row r="87" spans="1:5">
@@ -2225,7 +2367,9 @@
       <c r="C87" s="2">
         <v>9</v>
       </c>
-      <c r="D87" s="2" t="s"/>
+      <c r="D87" s="2">
+        <v>10</v>
+      </c>
       <c r="E87" s="2" t="s"/>
     </row>
     <row r="88" spans="1:5">
@@ -2238,7 +2382,9 @@
       <c r="C88" s="2">
         <v>9.5</v>
       </c>
-      <c r="D88" s="2" t="s"/>
+      <c r="D88" s="2">
+        <v>10</v>
+      </c>
       <c r="E88" s="2" t="s"/>
     </row>
     <row r="89" spans="1:5">
@@ -2251,7 +2397,9 @@
       <c r="C89" s="2">
         <v>10</v>
       </c>
-      <c r="D89" s="2" t="s"/>
+      <c r="D89" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E89" s="2" t="s"/>
     </row>
     <row r="90" spans="1:5">
@@ -2264,7 +2412,9 @@
       <c r="C90" s="2">
         <v>10</v>
       </c>
-      <c r="D90" s="2" t="s"/>
+      <c r="D90" s="2">
+        <v>9</v>
+      </c>
       <c r="E90" s="2" t="s"/>
     </row>
     <row r="91" spans="1:5">
@@ -2277,7 +2427,9 @@
       <c r="C91" s="2">
         <v>10</v>
       </c>
-      <c r="D91" s="2" t="s"/>
+      <c r="D91" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E91" s="2" t="s"/>
     </row>
     <row r="92" spans="1:5">
@@ -2290,7 +2442,9 @@
       <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="D92" s="2" t="s"/>
+      <c r="D92" s="2">
+        <v>10</v>
+      </c>
       <c r="E92" s="2" t="s"/>
     </row>
     <row r="93" spans="1:5">
@@ -2303,7 +2457,9 @@
       <c r="C93" s="2">
         <v>10</v>
       </c>
-      <c r="D93" s="2" t="s"/>
+      <c r="D93" s="2">
+        <v>9</v>
+      </c>
       <c r="E93" s="2" t="s"/>
     </row>
     <row r="94" spans="1:5">
@@ -2329,7 +2485,9 @@
       <c r="C95" s="2">
         <v>10</v>
       </c>
-      <c r="D95" s="2" t="s"/>
+      <c r="D95" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E95" s="2" t="s"/>
     </row>
     <row r="96" spans="1:5">
@@ -2342,7 +2500,9 @@
       <c r="C96" s="2">
         <v>9</v>
       </c>
-      <c r="D96" s="2" t="s"/>
+      <c r="D96" s="2">
+        <v>9</v>
+      </c>
       <c r="E96" s="2" t="s"/>
     </row>
     <row r="97" spans="1:5">
@@ -2355,7 +2515,9 @@
       <c r="C97" s="2">
         <v>10</v>
       </c>
-      <c r="D97" s="2" t="s"/>
+      <c r="D97" s="2">
+        <v>9</v>
+      </c>
       <c r="E97" s="2" t="s"/>
     </row>
     <row r="98" spans="1:5">
@@ -2368,7 +2530,9 @@
       <c r="C98" s="2">
         <v>9.5</v>
       </c>
-      <c r="D98" s="2" t="s"/>
+      <c r="D98" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E98" s="2" t="s"/>
     </row>
     <row r="99" spans="1:5">
@@ -2381,7 +2545,9 @@
       <c r="C99" s="2">
         <v>10</v>
       </c>
-      <c r="D99" s="2" t="s"/>
+      <c r="D99" s="2">
+        <v>10</v>
+      </c>
       <c r="E99" s="2" t="s"/>
     </row>
     <row r="100" spans="1:5">
@@ -2405,7 +2571,9 @@
       <c r="C101" s="2">
         <v>9.5</v>
       </c>
-      <c r="D101" s="2" t="s"/>
+      <c r="D101" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E101" s="2" t="s"/>
     </row>
     <row r="102" spans="1:5">
@@ -2418,7 +2586,9 @@
       <c r="C102" s="2">
         <v>10</v>
       </c>
-      <c r="D102" s="2" t="s"/>
+      <c r="D102" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E102" s="2" t="s"/>
     </row>
     <row r="103" spans="1:5">
@@ -2431,7 +2601,9 @@
       <c r="C103" s="2">
         <v>9.5</v>
       </c>
-      <c r="D103" s="2" t="s"/>
+      <c r="D103" s="2">
+        <v>9</v>
+      </c>
       <c r="E103" s="2" t="s"/>
     </row>
     <row r="104" spans="1:5">
@@ -2455,7 +2627,9 @@
       <c r="C105" s="2">
         <v>9.5</v>
       </c>
-      <c r="D105" s="2" t="s"/>
+      <c r="D105" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E105" s="2" t="s"/>
     </row>
     <row r="106" spans="1:5">
@@ -2468,7 +2642,9 @@
       <c r="C106" s="2">
         <v>9.5</v>
       </c>
-      <c r="D106" s="2" t="s"/>
+      <c r="D106" s="2">
+        <v>8</v>
+      </c>
       <c r="E106" s="2" t="s"/>
     </row>
     <row r="107" spans="1:5">
@@ -2481,7 +2657,9 @@
       <c r="C107" s="2">
         <v>7</v>
       </c>
-      <c r="D107" s="2" t="s"/>
+      <c r="D107" s="2">
+        <v>10</v>
+      </c>
       <c r="E107" s="2" t="s"/>
     </row>
     <row r="108" spans="1:5">
@@ -2494,7 +2672,9 @@
       <c r="C108" s="2">
         <v>10</v>
       </c>
-      <c r="D108" s="2" t="s"/>
+      <c r="D108" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E108" s="2" t="s"/>
     </row>
     <row r="109" spans="1:5">
@@ -2507,7 +2687,9 @@
       <c r="C109" s="2">
         <v>10</v>
       </c>
-      <c r="D109" s="2" t="s"/>
+      <c r="D109" s="2">
+        <v>8</v>
+      </c>
       <c r="E109" s="2" t="s"/>
     </row>
     <row r="110" spans="1:5">
@@ -2518,7 +2700,9 @@
         <v>223</v>
       </c>
       <c r="C110" s="2" t="s"/>
-      <c r="D110" s="2" t="s"/>
+      <c r="D110" s="2">
+        <v>9</v>
+      </c>
       <c r="E110" s="2" t="s"/>
     </row>
     <row r="111" spans="1:5">
@@ -2531,7 +2715,9 @@
       <c r="C111" s="2">
         <v>9.5</v>
       </c>
-      <c r="D111" s="2" t="s"/>
+      <c r="D111" s="2">
+        <v>8.5</v>
+      </c>
       <c r="E111" s="2" t="s"/>
     </row>
     <row r="112" spans="1:5">
@@ -2544,7 +2730,9 @@
       <c r="C112" s="2">
         <v>10</v>
       </c>
-      <c r="D112" s="2" t="s"/>
+      <c r="D112" s="2">
+        <v>10</v>
+      </c>
       <c r="E112" s="2" t="s"/>
     </row>
     <row r="113" spans="1:5">
@@ -2570,7 +2758,9 @@
       <c r="C114" s="2">
         <v>10</v>
       </c>
-      <c r="D114" s="2" t="s"/>
+      <c r="D114" s="2">
+        <v>9.5</v>
+      </c>
       <c r="E114" s="2" t="s"/>
     </row>
     <row r="115" spans="1:5">
@@ -2609,7 +2799,9 @@
       <c r="C117" s="2">
         <v>9.5</v>
       </c>
-      <c r="D117" s="2" t="s"/>
+      <c r="D117" s="2">
+        <v>8.5</v>
+      </c>
       <c r="E117" s="2" t="s"/>
     </row>
     <row r="118" spans="1:5">
@@ -2620,7 +2812,9 @@
         <v>239</v>
       </c>
       <c r="C118" s="2" t="s"/>
-      <c r="D118" s="2" t="s"/>
+      <c r="D118" s="2">
+        <v>9</v>
+      </c>
       <c r="E118" s="2" t="s"/>
     </row>
     <row r="119" spans="1:5">
@@ -2633,7 +2827,9 @@
       <c r="C119" s="2">
         <v>9.5</v>
       </c>
-      <c r="D119" s="2" t="s"/>
+      <c r="D119" s="2">
+        <v>9</v>
+      </c>
       <c r="E119" s="2" t="s"/>
     </row>
     <row r="120" spans="1:5">
@@ -2646,7 +2842,9 @@
       <c r="C120" s="2">
         <v>10</v>
       </c>
-      <c r="D120" s="2" t="s"/>
+      <c r="D120" s="2">
+        <v>10</v>
+      </c>
       <c r="E120" s="2" t="s"/>
     </row>
     <row r="121" spans="1:5">

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -2786,7 +2786,9 @@
       <c r="C116" s="2">
         <v>10</v>
       </c>
-      <c r="D116" s="2" t="s"/>
+      <c r="D116" s="2">
+        <v>10</v>
+      </c>
       <c r="E116" s="2" t="s"/>
     </row>
     <row r="117" spans="1:5">

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -3260,7 +3260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>234</v>
       </c>
@@ -3274,6 +3274,9 @@
       <c r="E115" s="3">
         <v>8</v>
       </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
@@ -3350,7 +3353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>244</v>
       </c>
@@ -3365,6 +3368,9 @@
       </c>
       <c r="E120" s="3">
         <v>9.5</v>
+      </c>
+      <c r="F120">
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5">

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -1782,7 +1782,9 @@
       <c r="D36" s="2">
         <v>9.5</v>
       </c>
-      <c r="E36" s="3" t="s"/>
+      <c r="E36" s="3">
+        <v>9.5</v>
+      </c>
       <c r="F36">
         <v>9.5</v>
       </c>

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t/>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>第4次</t>
+  </si>
+  <si>
+    <t>第5次</t>
   </si>
   <si>
     <t>段翔飞</t>
@@ -1131,7 +1134,7 @@
     <col min="5" max="5" width="17.7109" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1150,13 +1153,16 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
@@ -1170,13 +1176,16 @@
       <c r="F2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s"/>
       <c r="D3" s="2">
@@ -1186,13 +1195,16 @@
       <c r="F3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1206,13 +1218,16 @@
       <c r="F4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -1226,13 +1241,16 @@
       <c r="F5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s"/>
       <c r="D6" s="2">
@@ -1244,13 +1262,16 @@
       <c r="F6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -1263,14 +1284,17 @@
       </c>
       <c r="F7">
         <v>10</v>
+      </c>
+      <c r="G7">
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>9.5</v>
@@ -1285,12 +1309,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>9.5</v>
@@ -1304,13 +1328,16 @@
       <c r="F9">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -1324,13 +1351,16 @@
       <c r="F10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -1343,14 +1373,17 @@
       </c>
       <c r="F11">
         <v>10</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s"/>
       <c r="D12" s="2" t="s"/>
@@ -1358,21 +1391,21 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s"/>
       <c r="D13" s="2" t="s"/>
       <c r="E13" s="3" t="s"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -1386,13 +1419,16 @@
       <c r="F14">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>7</v>
@@ -1406,13 +1442,16 @@
       <c r="F15">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2">
         <v>7</v>
@@ -1426,13 +1465,16 @@
       <c r="F16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -1446,13 +1488,16 @@
       <c r="F17">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>7</v>
@@ -1466,13 +1511,16 @@
       <c r="F18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>10</v>
@@ -1486,13 +1534,16 @@
       <c r="F19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
@@ -1506,13 +1557,16 @@
       <c r="F20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2">
         <v>9</v>
@@ -1526,13 +1580,16 @@
       <c r="F21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
         <v>9.5</v>
@@ -1544,15 +1601,18 @@
         <v>10</v>
       </c>
       <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s"/>
       <c r="D23" s="2" t="s"/>
@@ -1560,10 +1620,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s"/>
       <c r="D24" s="2" t="s"/>
@@ -1571,21 +1631,21 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s"/>
       <c r="D25" s="2" t="s"/>
       <c r="E25" s="3" t="s"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>9.5</v>
@@ -1599,13 +1659,16 @@
       <c r="F26">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2">
         <v>9</v>
@@ -1619,13 +1682,16 @@
       <c r="F27">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2">
         <v>9.5</v>
@@ -1639,13 +1705,16 @@
       <c r="F28">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -1659,13 +1728,16 @@
       <c r="F29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2">
         <v>9.5</v>
@@ -1679,13 +1751,16 @@
       <c r="F30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2">
         <v>9</v>
@@ -1699,13 +1774,16 @@
       <c r="F31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2">
         <v>9</v>
@@ -1719,13 +1797,16 @@
       <c r="F32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2">
         <v>10</v>
@@ -1739,13 +1820,16 @@
       <c r="F33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2">
         <v>10</v>
@@ -1757,24 +1841,27 @@
       <c r="F34">
         <v>8</v>
       </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s"/>
       <c r="D35" s="2" t="s"/>
       <c r="E35" s="3" t="s"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2">
         <v>9.5</v>
@@ -1787,25 +1874,28 @@
       </c>
       <c r="F36">
         <v>9.5</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s"/>
       <c r="D37" s="2" t="s"/>
       <c r="E37" s="3" t="s"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2">
         <v>9.5</v>
@@ -1819,13 +1909,16 @@
       <c r="F38">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2">
         <v>10</v>
@@ -1839,13 +1932,16 @@
       <c r="F39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
@@ -1859,13 +1955,16 @@
       <c r="F40">
         <v>8.5</v>
       </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2">
         <v>10</v>
@@ -1880,12 +1979,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -1897,13 +1996,16 @@
       <c r="F42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2">
         <v>9.5</v>
@@ -1917,13 +2019,16 @@
       <c r="F43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2">
         <v>9.5</v>
@@ -1937,13 +2042,16 @@
       <c r="F44">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2">
         <v>10</v>
@@ -1955,15 +2063,18 @@
         <v>10</v>
       </c>
       <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2">
         <v>10</v>
@@ -1978,15 +2089,15 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2">
         <v>10</v>
@@ -2000,13 +2111,16 @@
       <c r="F47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2">
         <v>9.5</v>
@@ -2019,25 +2133,28 @@
       </c>
       <c r="F48">
         <v>9.5</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2" t="s"/>
       <c r="D49" s="2" t="s"/>
       <c r="E49" s="3" t="s"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2">
         <v>9.5</v>
@@ -2051,13 +2168,16 @@
       <c r="F50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2">
         <v>10</v>
@@ -2071,13 +2191,16 @@
       <c r="F51">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2">
         <v>10</v>
@@ -2091,13 +2214,16 @@
       <c r="F52">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2">
         <v>9.5</v>
@@ -2111,13 +2237,16 @@
       <c r="F53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2">
         <v>10</v>
@@ -2131,13 +2260,16 @@
       <c r="F54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2">
         <v>10</v>
@@ -2151,13 +2283,16 @@
       <c r="F55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2">
         <v>10</v>
@@ -2170,25 +2305,28 @@
       </c>
       <c r="F56">
         <v>9</v>
+      </c>
+      <c r="G56">
+        <v>9.5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s"/>
       <c r="D57" s="2" t="s"/>
       <c r="E57" s="3" t="s"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2">
         <v>9</v>
@@ -2202,13 +2340,16 @@
       <c r="F58">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2">
         <v>9</v>
@@ -2222,13 +2363,16 @@
       <c r="F59">
         <v>8.5</v>
       </c>
+      <c r="G59">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2">
         <v>9</v>
@@ -2245,10 +2389,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s"/>
       <c r="D61" s="2" t="s"/>
@@ -2256,10 +2400,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="2">
         <v>9.5</v>
@@ -2267,12 +2411,12 @@
       <c r="D62" s="2" t="s"/>
       <c r="E62" s="3" t="s"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2">
         <v>8.5</v>
@@ -2286,13 +2430,16 @@
       <c r="F63">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2">
         <v>10</v>
@@ -2306,13 +2453,16 @@
       <c r="F64">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2">
         <v>9.5</v>
@@ -2326,13 +2476,16 @@
       <c r="F65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2">
         <v>9.5</v>
@@ -2346,13 +2499,16 @@
       <c r="F66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="2">
         <v>10</v>
@@ -2366,13 +2522,16 @@
       <c r="F67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2">
         <v>9.5</v>
@@ -2386,13 +2545,16 @@
       <c r="F68">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2">
         <v>10</v>
@@ -2406,13 +2568,16 @@
       <c r="F69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2">
         <v>10</v>
@@ -2426,13 +2591,16 @@
       <c r="F70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" s="2">
         <v>10</v>
@@ -2446,13 +2614,16 @@
       <c r="F71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2">
         <v>9.5</v>
@@ -2466,13 +2637,16 @@
       <c r="F72">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" s="2">
         <v>10</v>
@@ -2486,13 +2660,16 @@
       <c r="F73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" s="2">
         <v>10</v>
@@ -2506,13 +2683,16 @@
       <c r="F74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2">
         <v>10</v>
@@ -2526,13 +2706,16 @@
       <c r="F75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" s="2">
         <v>10</v>
@@ -2546,13 +2729,16 @@
       <c r="F76">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2">
         <v>10</v>
@@ -2566,13 +2752,16 @@
       <c r="F77">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2">
         <v>10</v>
@@ -2586,13 +2775,16 @@
       <c r="F78">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2">
         <v>10</v>
@@ -2606,13 +2798,16 @@
       <c r="F79">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2">
         <v>10</v>
@@ -2626,13 +2821,16 @@
       <c r="F80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2">
         <v>10</v>
@@ -2646,13 +2844,16 @@
       <c r="F81">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="2">
         <v>10</v>
@@ -2663,13 +2864,16 @@
       <c r="E82" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" s="2">
         <v>10</v>
@@ -2682,14 +2886,17 @@
       </c>
       <c r="F83">
         <v>9.5</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2">
         <v>9.5</v>
@@ -2701,12 +2908,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2">
         <v>9</v>
@@ -2720,13 +2927,16 @@
       <c r="F85">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C86" s="2">
         <v>10</v>
@@ -2740,13 +2950,16 @@
       <c r="F86">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2">
         <v>9</v>
@@ -2760,13 +2973,16 @@
       <c r="F87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2">
         <v>9.5</v>
@@ -2780,13 +2996,16 @@
       <c r="F88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2">
         <v>10</v>
@@ -2800,13 +3019,16 @@
       <c r="F89">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2">
         <v>10</v>
@@ -2820,13 +3042,16 @@
       <c r="F90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C91" s="2">
         <v>10</v>
@@ -2840,13 +3065,16 @@
       <c r="F91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C92" s="2">
         <v>10</v>
@@ -2860,13 +3088,16 @@
       <c r="F92">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C93" s="2">
         <v>10</v>
@@ -2879,14 +3110,17 @@
       </c>
       <c r="F93">
         <v>9</v>
+      </c>
+      <c r="G93">
+        <v>9.5</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C94" s="2">
         <v>10</v>
@@ -2894,12 +3128,12 @@
       <c r="D94" s="2" t="s"/>
       <c r="E94" s="3" t="s"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95" s="2">
         <v>10</v>
@@ -2913,13 +3147,16 @@
       <c r="F95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C96" s="2">
         <v>9</v>
@@ -2933,13 +3170,16 @@
       <c r="F96">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2">
         <v>10</v>
@@ -2953,13 +3193,16 @@
       <c r="F97">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C98" s="2">
         <v>9.5</v>
@@ -2973,13 +3216,16 @@
       <c r="F98">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2">
         <v>10</v>
@@ -2992,25 +3238,28 @@
       </c>
       <c r="F99">
         <v>9.5</v>
+      </c>
+      <c r="G99">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2" t="s"/>
       <c r="D100" s="2" t="s"/>
       <c r="E100" s="3" t="s"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C101" s="2">
         <v>9.5</v>
@@ -3024,13 +3273,16 @@
       <c r="F101">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C102" s="2">
         <v>10</v>
@@ -3044,13 +3296,16 @@
       <c r="F102">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2">
         <v>9.5</v>
@@ -3062,26 +3317,29 @@
         <v>10</v>
       </c>
       <c r="F103">
+        <v>9</v>
+      </c>
+      <c r="G103">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C104" s="2" t="s"/>
       <c r="D104" s="2" t="s"/>
       <c r="E104" s="3" t="s"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105" s="2">
         <v>9.5</v>
@@ -3094,14 +3352,17 @@
       </c>
       <c r="F105">
         <v>9</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C106" s="2">
         <v>9.5</v>
@@ -3111,12 +3372,12 @@
       </c>
       <c r="E106" s="3" t="s"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C107" s="2">
         <v>7</v>
@@ -3130,13 +3391,16 @@
       <c r="F107">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C108" s="2">
         <v>10</v>
@@ -3150,13 +3414,16 @@
       <c r="F108">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C109" s="2">
         <v>10</v>
@@ -3170,13 +3437,16 @@
       <c r="F109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C110" s="2" t="s"/>
       <c r="D110" s="2">
@@ -3188,13 +3458,16 @@
       <c r="F110">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C111" s="2">
         <v>9.5</v>
@@ -3208,13 +3481,16 @@
       <c r="F111">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C112" s="2">
         <v>10</v>
@@ -3226,15 +3502,18 @@
         <v>10</v>
       </c>
       <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C113" s="2">
         <v>9.5</v>
@@ -3242,12 +3521,12 @@
       <c r="D113" s="2" t="s"/>
       <c r="E113" s="3" t="s"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C114" s="2">
         <v>10</v>
@@ -3261,13 +3540,16 @@
       <c r="F114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C115" s="2">
         <v>10</v>
@@ -3279,13 +3561,16 @@
       <c r="F115">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C116" s="2">
         <v>10</v>
@@ -3299,13 +3584,16 @@
       <c r="F116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C117" s="2">
         <v>9.5</v>
@@ -3319,13 +3607,16 @@
       <c r="F117">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C118" s="2" t="s"/>
       <c r="D118" s="2">
@@ -3334,13 +3625,19 @@
       <c r="E118" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119" s="2">
         <v>9.5</v>
@@ -3354,13 +3651,16 @@
       <c r="F119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C120" s="2">
         <v>10</v>
@@ -3374,13 +3674,16 @@
       <c r="F120">
         <v>8</v>
       </c>
+      <c r="G120">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C121" s="2" t="s"/>
       <c r="D121" s="2" t="s"/>

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t/>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>第8次</t>
+  </si>
+  <si>
+    <t>第9次</t>
   </si>
   <si>
     <t>段翔飞</t>
@@ -776,7 +779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -805,6 +808,9 @@
     <font>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -831,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,7 +855,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="6" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="6" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="2" fillId="2" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,7 +1167,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="E121"/>
+  <dimension ref="K121"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
   </sheetViews>
@@ -1164,9 +1176,10 @@
     <col min="3" max="3" width="12.543" customWidth="true"/>
     <col min="5" max="5" width="13.6211" customWidth="true"/>
     <col min="9" max="9" width="13.7109" customWidth="true"/>
+    <col min="11" max="11" width="13.7109" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1197,13 +1210,16 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
@@ -1229,13 +1245,16 @@
       <c r="J2" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s"/>
       <c r="D3" s="5">
@@ -1254,16 +1273,19 @@
       <c r="I3" s="5">
         <v>7</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -1289,13 +1311,16 @@
       <c r="J4" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>10</v>
@@ -1312,18 +1337,19 @@
       <c r="G5" s="6">
         <v>8.5</v>
       </c>
-      <c r="H5" s="7" t="s"/>
+      <c r="H5" s="8" t="s"/>
       <c r="I5" s="5" t="s"/>
       <c r="J5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="9" t="s"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s"/>
       <c r="D6" s="5">
@@ -1347,13 +1373,16 @@
       <c r="J6" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>10</v>
@@ -1376,16 +1405,19 @@
       <c r="I7" s="5">
         <v>10</v>
       </c>
-      <c r="J7" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5">
         <v>9.5</v>
@@ -1399,7 +1431,7 @@
       <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="7" t="s"/>
+      <c r="G8" s="8" t="s"/>
       <c r="H8" s="6">
         <v>8.5</v>
       </c>
@@ -1409,13 +1441,16 @@
       <c r="J8" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>9.5</v>
@@ -1441,13 +1476,16 @@
       <c r="J9" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <v>10</v>
@@ -1473,13 +1511,16 @@
       <c r="J10" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>10</v>
@@ -1505,45 +1546,50 @@
       <c r="J11" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="s"/>
       <c r="D12" s="5" t="s"/>
       <c r="E12" s="5" t="s"/>
-      <c r="F12" s="7" t="s"/>
-      <c r="G12" s="7" t="s"/>
-      <c r="H12" s="7" t="s"/>
+      <c r="F12" s="8" t="s"/>
+      <c r="G12" s="8" t="s"/>
+      <c r="H12" s="8" t="s"/>
       <c r="I12" s="5" t="s"/>
-      <c r="J12" s="7" t="s"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="8" t="s"/>
+      <c r="K12" s="9" t="s"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s"/>
       <c r="D13" s="5" t="s"/>
       <c r="E13" s="5" t="s"/>
-      <c r="F13" s="7" t="s"/>
-      <c r="G13" s="7" t="s"/>
-      <c r="H13" s="7" t="s"/>
+      <c r="F13" s="8" t="s"/>
+      <c r="G13" s="8" t="s"/>
+      <c r="H13" s="8" t="s"/>
       <c r="I13" s="5" t="s"/>
-      <c r="J13" s="7" t="s"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="8" t="s"/>
+      <c r="K13" s="9" t="s"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
@@ -1569,13 +1615,16 @@
       <c r="J14" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>7</v>
@@ -1601,13 +1650,16 @@
       <c r="J15" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5">
         <v>7</v>
@@ -1633,13 +1685,16 @@
       <c r="J16" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>9</v>
@@ -1665,13 +1720,16 @@
       <c r="J17" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5">
         <v>7</v>
@@ -1697,13 +1755,16 @@
       <c r="J18" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>10</v>
@@ -1729,13 +1790,16 @@
       <c r="J19" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5">
         <v>10</v>
@@ -1761,13 +1825,16 @@
       <c r="J20" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5">
         <v>9</v>
@@ -1790,16 +1857,19 @@
       <c r="I21" s="5">
         <v>10</v>
       </c>
-      <c r="J21" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="8">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>9.5</v>
@@ -1825,61 +1895,67 @@
       <c r="J22" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s"/>
       <c r="D23" s="5" t="s"/>
       <c r="E23" s="5" t="s"/>
-      <c r="F23" s="7" t="s"/>
-      <c r="G23" s="7" t="s"/>
-      <c r="H23" s="7" t="s"/>
+      <c r="F23" s="8" t="s"/>
+      <c r="G23" s="8" t="s"/>
+      <c r="H23" s="8" t="s"/>
       <c r="I23" s="5" t="s"/>
-      <c r="J23" s="7" t="s"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="8" t="s"/>
+      <c r="K23" s="9" t="s"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5" t="s"/>
       <c r="D24" s="5" t="s"/>
       <c r="E24" s="5" t="s"/>
-      <c r="F24" s="7" t="s"/>
-      <c r="G24" s="7" t="s"/>
-      <c r="H24" s="7" t="s"/>
+      <c r="F24" s="8" t="s"/>
+      <c r="G24" s="8" t="s"/>
+      <c r="H24" s="8" t="s"/>
       <c r="I24" s="5" t="s"/>
-      <c r="J24" s="7" t="s"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="8" t="s"/>
+      <c r="K24" s="9" t="s"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="s"/>
       <c r="D25" s="5" t="s"/>
       <c r="E25" s="5" t="s"/>
-      <c r="F25" s="7" t="s"/>
-      <c r="G25" s="7" t="s"/>
-      <c r="H25" s="7" t="s"/>
+      <c r="F25" s="8" t="s"/>
+      <c r="G25" s="8" t="s"/>
+      <c r="H25" s="8" t="s"/>
       <c r="I25" s="5" t="s"/>
-      <c r="J25" s="7" t="s"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="J25" s="8" t="s"/>
+      <c r="K25" s="9" t="s"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5">
         <v>9.5</v>
@@ -1905,13 +1981,16 @@
       <c r="J26" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5">
         <v>9</v>
@@ -1937,13 +2016,16 @@
       <c r="J27" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="5">
         <v>9.5</v>
@@ -1966,16 +2048,19 @@
       <c r="I28" s="5">
         <v>10</v>
       </c>
-      <c r="J28" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="J28" s="8">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="5">
         <v>10</v>
@@ -2001,13 +2086,16 @@
       <c r="J29" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5">
         <v>9.5</v>
@@ -2030,16 +2118,19 @@
       <c r="I30" s="5">
         <v>9</v>
       </c>
-      <c r="J30" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="8">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5">
         <v>9</v>
@@ -2065,13 +2156,16 @@
       <c r="J31" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5">
         <v>9</v>
@@ -2097,13 +2191,16 @@
       <c r="J32" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5">
         <v>10</v>
@@ -2120,18 +2217,21 @@
       <c r="G33" s="6">
         <v>9</v>
       </c>
-      <c r="H33" s="7" t="s"/>
+      <c r="H33" s="8" t="s"/>
       <c r="I33" s="5" t="s"/>
-      <c r="J33" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="8">
+        <v>9</v>
+      </c>
+      <c r="K33" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="8" t="s">
         <v>76</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="5">
         <v>10</v>
@@ -2146,34 +2246,38 @@
       <c r="G34" s="6">
         <v>9</v>
       </c>
-      <c r="H34" s="7" t="s"/>
+      <c r="H34" s="8" t="s"/>
       <c r="I34" s="5" t="s"/>
-      <c r="J34" s="7">
+      <c r="J34" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="5" t="s"/>
       <c r="D35" s="5" t="s"/>
       <c r="E35" s="5" t="s"/>
-      <c r="F35" s="7" t="s"/>
-      <c r="G35" s="7" t="s"/>
-      <c r="H35" s="7" t="s"/>
+      <c r="F35" s="8" t="s"/>
+      <c r="G35" s="8" t="s"/>
+      <c r="H35" s="8" t="s"/>
       <c r="I35" s="5" t="s"/>
-      <c r="J35" s="7" t="s"/>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="J35" s="8" t="s"/>
+      <c r="K35" s="9" t="s"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="5">
         <v>9.5</v>
@@ -2199,29 +2303,33 @@
       <c r="J36" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5" t="s"/>
       <c r="D37" s="5" t="s"/>
       <c r="E37" s="5" t="s"/>
-      <c r="F37" s="7" t="s"/>
-      <c r="G37" s="7" t="s"/>
-      <c r="H37" s="7" t="s"/>
+      <c r="F37" s="8" t="s"/>
+      <c r="G37" s="8" t="s"/>
+      <c r="H37" s="8" t="s"/>
       <c r="I37" s="5" t="s"/>
-      <c r="J37" s="7" t="s"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="8" t="s"/>
+      <c r="K37" s="9" t="s"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="5">
         <v>9.5</v>
@@ -2244,16 +2352,19 @@
       <c r="I38" s="5">
         <v>10</v>
       </c>
-      <c r="J38" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="J38" s="8">
+        <v>9</v>
+      </c>
+      <c r="K38" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="5">
         <v>10</v>
@@ -2279,13 +2390,16 @@
       <c r="J39" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5">
         <v>10</v>
@@ -2311,13 +2425,16 @@
       <c r="J40" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="5">
         <v>10</v>
@@ -2340,14 +2457,17 @@
       <c r="I41" s="5">
         <v>10</v>
       </c>
-      <c r="J41" s="7" t="s"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="J41" s="8" t="s"/>
+      <c r="K41" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="5">
         <v>10</v>
@@ -2371,13 +2491,16 @@
       <c r="J42" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="5">
         <v>9.5</v>
@@ -2403,13 +2526,16 @@
       <c r="J43" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="5">
         <v>9.5</v>
@@ -2435,13 +2561,16 @@
       <c r="J44" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="5">
         <v>10</v>
@@ -2464,16 +2593,19 @@
       <c r="I45" s="5">
         <v>10</v>
       </c>
-      <c r="J45" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="8">
+        <v>10</v>
+      </c>
+      <c r="K45" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="5">
         <v>10</v>
@@ -2488,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H46" s="6">
         <v>8.5</v>
@@ -2499,13 +2631,16 @@
       <c r="J46" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="5">
         <v>10</v>
@@ -2528,16 +2663,19 @@
       <c r="I47" s="5">
         <v>7</v>
       </c>
-      <c r="J47" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="J47" s="8">
+        <v>10</v>
+      </c>
+      <c r="K47" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="5">
         <v>9.5</v>
@@ -2560,32 +2698,36 @@
       <c r="I48" s="5">
         <v>9</v>
       </c>
-      <c r="J48" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" s="8">
+        <v>10</v>
+      </c>
+      <c r="K48" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="5" t="s"/>
       <c r="D49" s="5" t="s"/>
       <c r="E49" s="5" t="s"/>
-      <c r="F49" s="7" t="s"/>
-      <c r="G49" s="7" t="s"/>
-      <c r="H49" s="7" t="s"/>
+      <c r="F49" s="8" t="s"/>
+      <c r="G49" s="8" t="s"/>
+      <c r="H49" s="8" t="s"/>
       <c r="I49" s="5" t="s"/>
-      <c r="J49" s="7" t="s"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="J49" s="8" t="s"/>
+      <c r="K49" s="9" t="s"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" s="5">
         <v>9.5</v>
@@ -2611,13 +2753,16 @@
       <c r="J50" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5">
         <v>10</v>
@@ -2634,18 +2779,21 @@
       <c r="G51" s="6">
         <v>9</v>
       </c>
-      <c r="H51" s="7" t="s"/>
+      <c r="H51" s="8" t="s"/>
       <c r="I51" s="5">
         <v>7</v>
       </c>
-      <c r="J51" s="7" t="s"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="J51" s="8" t="s"/>
+      <c r="K51" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" s="5">
         <v>10</v>
@@ -2671,13 +2819,16 @@
       <c r="J52" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="5">
         <v>9.5</v>
@@ -2703,13 +2854,16 @@
       <c r="J53" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" s="5">
         <v>10</v>
@@ -2735,13 +2889,16 @@
       <c r="J54" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="5">
         <v>10</v>
@@ -2767,13 +2924,16 @@
       <c r="J55" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="5">
         <v>10</v>
@@ -2799,29 +2959,33 @@
       <c r="J56" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="5" t="s"/>
       <c r="D57" s="5" t="s"/>
       <c r="E57" s="5" t="s"/>
-      <c r="F57" s="7" t="s"/>
-      <c r="G57" s="7" t="s"/>
-      <c r="H57" s="7" t="s"/>
+      <c r="F57" s="8" t="s"/>
+      <c r="G57" s="8" t="s"/>
+      <c r="H57" s="8" t="s"/>
       <c r="I57" s="5" t="s"/>
-      <c r="J57" s="7" t="s"/>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="J57" s="8" t="s"/>
+      <c r="K57" s="9" t="s"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" s="5">
         <v>9</v>
@@ -2845,13 +3009,14 @@
       <c r="J58" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" s="9" t="s"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" s="5">
         <v>9</v>
@@ -2874,16 +3039,19 @@
       <c r="I59" s="5">
         <v>10</v>
       </c>
-      <c r="J59" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="J59" s="8">
+        <v>9</v>
+      </c>
+      <c r="K59" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" s="5">
         <v>9</v>
@@ -2904,48 +3072,51 @@
         <v>5</v>
       </c>
       <c r="I60" s="5" t="s"/>
-      <c r="J60" s="7" t="s"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="J60" s="8" t="s"/>
+      <c r="K60" s="9" t="s"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" s="5" t="s"/>
       <c r="D61" s="5" t="s"/>
       <c r="E61" s="5" t="s"/>
-      <c r="F61" s="7" t="s"/>
-      <c r="G61" s="7" t="s"/>
-      <c r="H61" s="7" t="s"/>
+      <c r="F61" s="8" t="s"/>
+      <c r="G61" s="8" t="s"/>
+      <c r="H61" s="8" t="s"/>
       <c r="I61" s="5" t="s"/>
-      <c r="J61" s="7" t="s"/>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="J61" s="8" t="s"/>
+      <c r="K61" s="9" t="s"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="5">
         <v>9.5</v>
       </c>
       <c r="D62" s="5" t="s"/>
       <c r="E62" s="5" t="s"/>
-      <c r="F62" s="7" t="s"/>
-      <c r="G62" s="7" t="s"/>
-      <c r="H62" s="7" t="s"/>
+      <c r="F62" s="8" t="s"/>
+      <c r="G62" s="8" t="s"/>
+      <c r="H62" s="8" t="s"/>
       <c r="I62" s="5" t="s"/>
-      <c r="J62" s="7" t="s"/>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="J62" s="8" t="s"/>
+      <c r="K62" s="9" t="s"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="5">
         <v>8.5</v>
@@ -2971,13 +3142,16 @@
       <c r="J63" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C64" s="5">
         <v>10</v>
@@ -3000,14 +3174,17 @@
       <c r="I64" s="5">
         <v>9.5</v>
       </c>
-      <c r="J64" s="7" t="s"/>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="J64" s="8" t="s"/>
+      <c r="K64" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" s="5">
         <v>9.5</v>
@@ -3033,13 +3210,16 @@
       <c r="J65" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C66" s="5">
         <v>9.5</v>
@@ -3065,13 +3245,16 @@
       <c r="J66" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" s="5">
         <v>10</v>
@@ -3097,13 +3280,16 @@
       <c r="J67" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" s="5">
         <v>9.5</v>
@@ -3129,13 +3315,16 @@
       <c r="J68" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C69" s="5">
         <v>10</v>
@@ -3161,13 +3350,16 @@
       <c r="J69" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C70" s="5">
         <v>10</v>
@@ -3193,13 +3385,16 @@
       <c r="J70" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C71" s="5">
         <v>10</v>
@@ -3225,13 +3420,14 @@
       <c r="J71" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" s="9" t="s"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C72" s="5">
         <v>9.5</v>
@@ -3254,14 +3450,15 @@
       <c r="I72" s="5">
         <v>9</v>
       </c>
-      <c r="J72" s="7" t="s"/>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="J72" s="8" t="s"/>
+      <c r="K72" s="9" t="s"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" s="5">
         <v>10</v>
@@ -3287,13 +3484,16 @@
       <c r="J73" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C74" s="5">
         <v>10</v>
@@ -3319,13 +3519,16 @@
       <c r="J74" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C75" s="5">
         <v>10</v>
@@ -3348,16 +3551,19 @@
       <c r="I75" s="5">
         <v>10</v>
       </c>
-      <c r="J75" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="J75" s="8">
+        <v>10</v>
+      </c>
+      <c r="K75" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C76" s="5">
         <v>10</v>
@@ -3383,13 +3589,16 @@
       <c r="J76" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" s="5">
         <v>10</v>
@@ -3415,13 +3624,16 @@
       <c r="J77" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" s="5">
         <v>10</v>
@@ -3447,13 +3659,16 @@
       <c r="J78" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" s="5">
         <v>10</v>
@@ -3479,13 +3694,16 @@
       <c r="J79" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="5">
         <v>10</v>
@@ -3508,16 +3726,19 @@
       <c r="I80" s="5">
         <v>10</v>
       </c>
-      <c r="J80" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="J80" s="8">
+        <v>10</v>
+      </c>
+      <c r="K80" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81" s="5">
         <v>10</v>
@@ -3543,13 +3764,16 @@
       <c r="J81" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82" s="5">
         <v>10</v>
@@ -3572,14 +3796,19 @@
       <c r="I82" s="5">
         <v>10</v>
       </c>
-      <c r="J82" s="7" t="s"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="J82" s="8">
+        <v>7</v>
+      </c>
+      <c r="K82" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C83" s="5">
         <v>10</v>
@@ -3602,16 +3831,19 @@
       <c r="I83" s="5">
         <v>10</v>
       </c>
-      <c r="J83" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="J83" s="8">
+        <v>10</v>
+      </c>
+      <c r="K83" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C84" s="5">
         <v>9.5</v>
@@ -3622,20 +3854,23 @@
       <c r="E84" s="5">
         <v>9</v>
       </c>
-      <c r="F84" s="7" t="s"/>
-      <c r="G84" s="7" t="s"/>
-      <c r="H84" s="7" t="s"/>
+      <c r="F84" s="8" t="s"/>
+      <c r="G84" s="8" t="s"/>
+      <c r="H84" s="8" t="s"/>
       <c r="I84" s="5" t="s"/>
       <c r="J84" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" s="5">
         <v>9</v>
@@ -3661,13 +3896,16 @@
       <c r="J85" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C86" s="5">
         <v>10</v>
@@ -3693,13 +3931,16 @@
       <c r="J86" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C87" s="5">
         <v>9</v>
@@ -3725,13 +3966,16 @@
       <c r="J87" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C88" s="5">
         <v>9.5</v>
@@ -3757,13 +4001,16 @@
       <c r="J88" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C89" s="5">
         <v>10</v>
@@ -3789,13 +4036,16 @@
       <c r="J89" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C90" s="5">
         <v>10</v>
@@ -3821,13 +4071,16 @@
       <c r="J90" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5">
         <v>10</v>
@@ -3853,13 +4106,16 @@
       <c r="J91" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5">
         <v>10</v>
@@ -3885,13 +4141,16 @@
       <c r="J92" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C93" s="5">
         <v>10</v>
@@ -3917,31 +4176,35 @@
       <c r="J93" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C94" s="5">
         <v>10</v>
       </c>
       <c r="D94" s="5" t="s"/>
       <c r="E94" s="5" t="s"/>
-      <c r="F94" s="7" t="s"/>
-      <c r="G94" s="7" t="s"/>
-      <c r="H94" s="7" t="s"/>
+      <c r="F94" s="8" t="s"/>
+      <c r="G94" s="8" t="s"/>
+      <c r="H94" s="8" t="s"/>
       <c r="I94" s="5" t="s"/>
-      <c r="J94" s="7" t="s"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="J94" s="8" t="s"/>
+      <c r="K94" s="9" t="s"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C95" s="5">
         <v>10</v>
@@ -3967,13 +4230,16 @@
       <c r="J95" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" s="5">
         <v>9</v>
@@ -3999,13 +4265,16 @@
       <c r="J96" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C97" s="5">
         <v>10</v>
@@ -4031,13 +4300,14 @@
       <c r="J97" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" s="9" t="s"/>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C98" s="5">
         <v>9.5</v>
@@ -4063,13 +4333,16 @@
       <c r="J98" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C99" s="5">
         <v>10</v>
@@ -4095,29 +4368,33 @@
       <c r="J99" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C100" s="5" t="s"/>
       <c r="D100" s="5" t="s"/>
       <c r="E100" s="5" t="s"/>
-      <c r="F100" s="7" t="s"/>
-      <c r="G100" s="7" t="s"/>
-      <c r="H100" s="7" t="s"/>
+      <c r="F100" s="8" t="s"/>
+      <c r="G100" s="8" t="s"/>
+      <c r="H100" s="8" t="s"/>
       <c r="I100" s="5" t="s"/>
-      <c r="J100" s="7" t="s"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="J100" s="8" t="s"/>
+      <c r="K100" s="9" t="s"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C101" s="5">
         <v>9.5</v>
@@ -4143,13 +4420,16 @@
       <c r="J101" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C102" s="5">
         <v>10</v>
@@ -4175,13 +4455,16 @@
       <c r="J102" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" s="5">
         <v>9.5</v>
@@ -4204,32 +4487,36 @@
       <c r="I103" s="5">
         <v>9.5</v>
       </c>
-      <c r="J103" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="J103" s="8">
+        <v>10</v>
+      </c>
+      <c r="K103" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C104" s="5" t="s"/>
       <c r="D104" s="5" t="s"/>
       <c r="E104" s="5" t="s"/>
-      <c r="F104" s="7" t="s"/>
-      <c r="G104" s="7" t="s"/>
-      <c r="H104" s="7" t="s"/>
+      <c r="F104" s="8" t="s"/>
+      <c r="G104" s="8" t="s"/>
+      <c r="H104" s="8" t="s"/>
       <c r="I104" s="5" t="s"/>
-      <c r="J104" s="7" t="s"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="J104" s="8" t="s"/>
+      <c r="K104" s="9" t="s"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C105" s="5">
         <v>9.5</v>
@@ -4252,14 +4539,17 @@
       <c r="I105" s="5">
         <v>10</v>
       </c>
-      <c r="J105" s="7" t="s"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="J105" s="8" t="s"/>
+      <c r="K105" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C106" s="5">
         <v>9.5</v>
@@ -4268,18 +4558,19 @@
         <v>8</v>
       </c>
       <c r="E106" s="5" t="s"/>
-      <c r="F106" s="7" t="s"/>
-      <c r="G106" s="7" t="s"/>
-      <c r="H106" s="7" t="s"/>
+      <c r="F106" s="8" t="s"/>
+      <c r="G106" s="8" t="s"/>
+      <c r="H106" s="8" t="s"/>
       <c r="I106" s="5" t="s"/>
-      <c r="J106" s="7" t="s"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="J106" s="8" t="s"/>
+      <c r="K106" s="9" t="s"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C107" s="5">
         <v>7</v>
@@ -4305,13 +4596,16 @@
       <c r="J107" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C108" s="5">
         <v>10</v>
@@ -4334,14 +4628,17 @@
       <c r="I108" s="5">
         <v>10</v>
       </c>
-      <c r="J108" s="7" t="s"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="J108" s="8" t="s"/>
+      <c r="K108" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C109" s="5">
         <v>10</v>
@@ -4358,18 +4655,23 @@
       <c r="G109" s="6">
         <v>9</v>
       </c>
-      <c r="H109" s="7" t="s"/>
+      <c r="H109" s="8" t="s"/>
       <c r="I109" s="5">
         <v>10</v>
       </c>
-      <c r="J109" s="7" t="s"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="J109" s="8">
+        <v>7</v>
+      </c>
+      <c r="K109" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C110" s="5" t="s"/>
       <c r="D110" s="5">
@@ -4393,13 +4695,16 @@
       <c r="J110" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C111" s="5">
         <v>9.5</v>
@@ -4425,13 +4730,16 @@
       <c r="J111" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C112" s="5">
         <v>10</v>
@@ -4457,31 +4765,35 @@
       <c r="J112" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C113" s="5">
         <v>9.5</v>
       </c>
       <c r="D113" s="5" t="s"/>
       <c r="E113" s="5" t="s"/>
-      <c r="F113" s="7" t="s"/>
-      <c r="G113" s="7" t="s"/>
-      <c r="H113" s="7" t="s"/>
+      <c r="F113" s="8" t="s"/>
+      <c r="G113" s="8" t="s"/>
+      <c r="H113" s="8" t="s"/>
       <c r="I113" s="5" t="s"/>
-      <c r="J113" s="7" t="s"/>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="J113" s="8" t="s"/>
+      <c r="K113" s="9" t="s"/>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C114" s="5">
         <v>10</v>
@@ -4504,14 +4816,17 @@
       <c r="I114" s="5">
         <v>10</v>
       </c>
-      <c r="J114" s="7" t="s"/>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="J114" s="8" t="s"/>
+      <c r="K114" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C115" s="5">
         <v>10</v>
@@ -4535,13 +4850,16 @@
       <c r="J115" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C116" s="5">
         <v>10</v>
@@ -4567,13 +4885,16 @@
       <c r="J116" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C117" s="5">
         <v>9.5</v>
@@ -4596,14 +4917,17 @@
       <c r="I117" s="5">
         <v>8</v>
       </c>
-      <c r="J117" s="7" t="s"/>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="J117" s="8" t="s"/>
+      <c r="K117" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C118" s="5" t="s"/>
       <c r="D118" s="5">
@@ -4618,18 +4942,19 @@
       <c r="G118" s="6">
         <v>6</v>
       </c>
-      <c r="H118" s="7" t="s"/>
+      <c r="H118" s="8" t="s"/>
       <c r="I118" s="5">
         <v>10</v>
       </c>
-      <c r="J118" s="7" t="s"/>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="J118" s="8" t="s"/>
+      <c r="K118" s="9" t="s"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C119" s="5">
         <v>9.5</v>
@@ -4655,13 +4980,16 @@
       <c r="J119" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C120" s="5">
         <v>10</v>
@@ -4687,17 +5015,21 @@
       <c r="J120" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="K120" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C121" s="3" t="s"/>
       <c r="D121" s="3" t="s"/>
       <c r="E121" s="4" t="s"/>
+      <c r="K121" s="9" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -3420,7 +3420,9 @@
       <c r="J71" s="6">
         <v>10</v>
       </c>
-      <c r="K71" s="9" t="s"/>
+      <c r="K71" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3" t="s">
@@ -4628,7 +4630,9 @@
       <c r="I108" s="5">
         <v>10</v>
       </c>
-      <c r="J108" s="8" t="s"/>
+      <c r="J108" s="8">
+        <v>10</v>
+      </c>
       <c r="K108" s="7">
         <v>10</v>
       </c>
@@ -4946,8 +4950,12 @@
       <c r="I118" s="5">
         <v>10</v>
       </c>
-      <c r="J118" s="8" t="s"/>
-      <c r="K118" s="9" t="s"/>
+      <c r="J118" s="8">
+        <v>9</v>
+      </c>
+      <c r="K118" s="9">
+        <v>9</v>
+      </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3" t="s">

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -1431,7 +1431,9 @@
       <c r="F8" s="6">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s"/>
+      <c r="G8" s="8">
+        <v>8.5</v>
+      </c>
       <c r="H8" s="6">
         <v>8.5</v>
       </c>
@@ -3174,7 +3176,9 @@
       <c r="I64" s="5">
         <v>9.5</v>
       </c>
-      <c r="J64" s="8" t="s"/>
+      <c r="J64" s="8">
+        <v>8</v>
+      </c>
       <c r="K64" s="7">
         <v>10</v>
       </c>
@@ -4559,12 +4563,24 @@
       <c r="D106" s="5">
         <v>8</v>
       </c>
-      <c r="E106" s="5" t="s"/>
-      <c r="F106" s="8" t="s"/>
-      <c r="G106" s="8" t="s"/>
-      <c r="H106" s="8" t="s"/>
-      <c r="I106" s="5" t="s"/>
-      <c r="J106" s="8" t="s"/>
+      <c r="E106" s="5">
+        <v>4</v>
+      </c>
+      <c r="F106" s="8">
+        <v>4</v>
+      </c>
+      <c r="G106" s="8">
+        <v>4</v>
+      </c>
+      <c r="H106" s="8">
+        <v>5</v>
+      </c>
+      <c r="I106" s="5">
+        <v>5</v>
+      </c>
+      <c r="J106" s="8">
+        <v>5</v>
+      </c>
       <c r="K106" s="9" t="s"/>
     </row>
     <row r="107" spans="1:11">
@@ -4820,7 +4836,9 @@
       <c r="I114" s="5">
         <v>10</v>
       </c>
-      <c r="J114" s="8" t="s"/>
+      <c r="J114" s="8">
+        <v>9.5</v>
+      </c>
       <c r="K114" s="7">
         <v>7</v>
       </c>
@@ -4835,7 +4853,9 @@
       <c r="C115" s="5">
         <v>10</v>
       </c>
-      <c r="D115" s="5" t="s"/>
+      <c r="D115" s="5">
+        <v>7</v>
+      </c>
       <c r="E115" s="5">
         <v>8</v>
       </c>

--- a/hw_grades/图论作业成绩.xlsx
+++ b/hw_grades/图论作业成绩.xlsx
@@ -4581,7 +4581,9 @@
       <c r="J106" s="8">
         <v>5</v>
       </c>
-      <c r="K106" s="9" t="s"/>
+      <c r="K106" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
